--- a/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
+++ b/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F09C79B-ADB9-4C9A-8475-EF89A6FE282C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13280777-1A2C-4E65-ACB5-6814F7B0CB92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11490" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\О\б\щ\и\й"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,13 +160,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
   </cellXfs>
@@ -481,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81750476-835F-4BE1-9450-5A0A56AFB7F7}">
-  <dimension ref="A1:K507"/>
+  <dimension ref="A1:K508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="I504" sqref="I504:I507"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.7109375" style="1" customWidth="1"/>
@@ -497,11 +504,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="138.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -531,7 +539,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="4" t="str">
         <f>IF(K3="YES","Болт М"&amp;C3&amp;"-6gx"&amp;H3&amp;"(S"&amp;E3&amp;") ГОСТ 7798-77","*Болт М"&amp;C3&amp;"-6gx"&amp;H3&amp;"(S"&amp;E3&amp;") ГОСТ 7798-77")</f>
         <v>Болт М6-6gx8(S10) ГОСТ 7798-77</v>
       </c>
@@ -565,7 +573,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A27" si="0">IF(K4="YES","Болт М"&amp;C4&amp;"-6gx"&amp;H4&amp;"(S"&amp;E4&amp;") ГОСТ 7798-77","*Болт М"&amp;C4&amp;"-6gx"&amp;H4&amp;"(S"&amp;E4&amp;") ГОСТ 7798-77")</f>
         <v>Болт М6-6gx10(S10) ГОСТ 7798-77</v>
       </c>
@@ -594,7 +602,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx12(S10) ГОСТ 7798-77</v>
       </c>
@@ -623,7 +631,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx14(S10) ГОСТ 7798-77</v>
       </c>
@@ -652,7 +660,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx16(S10) ГОСТ 7798-77</v>
       </c>
@@ -681,7 +689,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx18(S10) ГОСТ 7798-77</v>
       </c>
@@ -710,7 +718,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx20(S10) ГОСТ 7798-77</v>
       </c>
@@ -739,7 +747,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx22(S10) ГОСТ 7798-77</v>
       </c>
@@ -768,7 +776,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx25(S10) ГОСТ 7798-77</v>
       </c>
@@ -797,7 +805,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx28(S10) ГОСТ 7798-77</v>
       </c>
@@ -826,7 +834,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx30(S10) ГОСТ 7798-77</v>
       </c>
@@ -855,7 +863,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx32(S10) ГОСТ 7798-77</v>
       </c>
@@ -884,7 +892,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx35(S10) ГОСТ 7798-77</v>
       </c>
@@ -913,7 +921,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx38(S10) ГОСТ 7798-77</v>
       </c>
@@ -942,7 +950,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx40(S10) ГОСТ 7798-77</v>
       </c>
@@ -971,7 +979,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx45(S10) ГОСТ 7798-77</v>
       </c>
@@ -1000,7 +1008,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx50(S10) ГОСТ 7798-77</v>
       </c>
@@ -1029,7 +1037,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx55(S10) ГОСТ 7798-77</v>
       </c>
@@ -1058,7 +1066,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx60(S10) ГОСТ 7798-77</v>
       </c>
@@ -1087,7 +1095,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx65(S10) ГОСТ 7798-77</v>
       </c>
@@ -1116,7 +1124,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx70(S10) ГОСТ 7798-77</v>
       </c>
@@ -1145,7 +1153,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx75(S10) ГОСТ 7798-77</v>
       </c>
@@ -1174,7 +1182,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx80(S10) ГОСТ 7798-77</v>
       </c>
@@ -1203,7 +1211,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*Болт М6-6gx85(S10) ГОСТ 7798-77</v>
       </c>
@@ -1232,7 +1240,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
+      <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Болт М6-6gx90(S10) ГОСТ 7798-77</v>
       </c>
@@ -1261,7 +1269,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
+      <c r="A28" s="4" t="str">
         <f t="shared" ref="A28:A483" si="3">IF(K28="YES","Болт М"&amp;C28&amp;"-6gx"&amp;H28&amp;"(S"&amp;E28&amp;") ГОСТ 7798-77","*Болт М"&amp;C28&amp;"-6gx"&amp;H28&amp;"(S"&amp;E28&amp;") ГОСТ 7798-77")</f>
         <v>Болт М8-6gx8(S13) ГОСТ 7798-77</v>
       </c>
@@ -1295,7 +1303,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
+      <c r="A29" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx10(S13) ГОСТ 7798-77</v>
       </c>
@@ -1324,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
+      <c r="A30" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx12(S13) ГОСТ 7798-77</v>
       </c>
@@ -1353,7 +1361,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
+      <c r="A31" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx14(S13) ГОСТ 7798-77</v>
       </c>
@@ -1382,7 +1390,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="str">
+      <c r="A32" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx16(S13) ГОСТ 7798-77</v>
       </c>
@@ -1411,7 +1419,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="str">
+      <c r="A33" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx18(S13) ГОСТ 7798-77</v>
       </c>
@@ -1440,7 +1448,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
+      <c r="A34" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx20(S13) ГОСТ 7798-77</v>
       </c>
@@ -1469,7 +1477,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
+      <c r="A35" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx22(S13) ГОСТ 7798-77</v>
       </c>
@@ -1498,7 +1506,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx25(S13) ГОСТ 7798-77</v>
       </c>
@@ -1527,7 +1535,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx28(S13) ГОСТ 7798-77</v>
       </c>
@@ -1556,7 +1564,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="str">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx30(S13) ГОСТ 7798-77</v>
       </c>
@@ -1585,7 +1593,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="str">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx32(S13) ГОСТ 7798-77</v>
       </c>
@@ -1614,7 +1622,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="str">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx35(S13) ГОСТ 7798-77</v>
       </c>
@@ -1643,7 +1651,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="str">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx38(S13) ГОСТ 7798-77</v>
       </c>
@@ -1672,7 +1680,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="str">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx40(S13) ГОСТ 7798-77</v>
       </c>
@@ -1701,7 +1709,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="str">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx45(S13) ГОСТ 7798-77</v>
       </c>
@@ -1730,7 +1738,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="str">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx50(S13) ГОСТ 7798-77</v>
       </c>
@@ -1759,7 +1767,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="str">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx55(S13) ГОСТ 7798-77</v>
       </c>
@@ -1788,7 +1796,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="str">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx60(S13) ГОСТ 7798-77</v>
       </c>
@@ -1817,7 +1825,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="str">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx65(S13) ГОСТ 7798-77</v>
       </c>
@@ -1846,7 +1854,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="str">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx70(S13) ГОСТ 7798-77</v>
       </c>
@@ -1875,7 +1883,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="str">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx75(S13) ГОСТ 7798-77</v>
       </c>
@@ -1904,7 +1912,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="str">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx80(S13) ГОСТ 7798-77</v>
       </c>
@@ -1933,7 +1941,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="str">
+      <c r="A51" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx85(S13) ГОСТ 7798-77</v>
       </c>
@@ -1962,7 +1970,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="str">
+      <c r="A52" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx90(S13) ГОСТ 7798-77</v>
       </c>
@@ -1991,7 +1999,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="str">
+      <c r="A53" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М8-6gx95(S13) ГОСТ 7798-77</v>
       </c>
@@ -2020,7 +2028,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
+      <c r="A54" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М8-6gx100(S13) ГОСТ 7798-77</v>
       </c>
@@ -2049,7 +2057,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="str">
+      <c r="A55" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М10-6gx10(S16) ГОСТ 7798-77</v>
       </c>
@@ -2083,7 +2091,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="str">
+      <c r="A56" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М10-6gx12(S16) ГОСТ 7798-77</v>
       </c>
@@ -2112,7 +2120,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="str">
+      <c r="A57" s="4" t="str">
         <f t="shared" ref="A57:A93" si="6">IF(K57="YES","Болт М"&amp;C57&amp;"-6gx"&amp;H57&amp;"(S"&amp;E57&amp;") ГОСТ 7798-77","*Болт М"&amp;C57&amp;"-6gx"&amp;H57&amp;"(S"&amp;E57&amp;") ГОСТ 7798-77")</f>
         <v>Болт М10-6gx14(S16) ГОСТ 7798-77</v>
       </c>
@@ -2141,7 +2149,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="str">
+      <c r="A58" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx16(S16) ГОСТ 7798-77</v>
       </c>
@@ -2170,7 +2178,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="str">
+      <c r="A59" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx18(S16) ГОСТ 7798-77</v>
       </c>
@@ -2199,7 +2207,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
+      <c r="A60" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx20(S16) ГОСТ 7798-77</v>
       </c>
@@ -2228,7 +2236,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="str">
+      <c r="A61" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx22(S16) ГОСТ 7798-77</v>
       </c>
@@ -2257,7 +2265,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="str">
+      <c r="A62" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx25(S16) ГОСТ 7798-77</v>
       </c>
@@ -2286,7 +2294,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="str">
+      <c r="A63" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx28(S16) ГОСТ 7798-77</v>
       </c>
@@ -2315,7 +2323,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
+      <c r="A64" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx30(S16) ГОСТ 7798-77</v>
       </c>
@@ -2344,7 +2352,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
+      <c r="A65" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx32(S16) ГОСТ 7798-77</v>
       </c>
@@ -2373,7 +2381,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
+      <c r="A66" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx35(S16) ГОСТ 7798-77</v>
       </c>
@@ -2402,7 +2410,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="str">
+      <c r="A67" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx38(S16) ГОСТ 7798-77</v>
       </c>
@@ -2431,7 +2439,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="str">
+      <c r="A68" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx40(S16) ГОСТ 7798-77</v>
       </c>
@@ -2460,7 +2468,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="str">
+      <c r="A69" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx45(S16) ГОСТ 7798-77</v>
       </c>
@@ -2489,7 +2497,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="str">
+      <c r="A70" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx50(S16) ГОСТ 7798-77</v>
       </c>
@@ -2518,7 +2526,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="str">
+      <c r="A71" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx55(S16) ГОСТ 7798-77</v>
       </c>
@@ -2547,7 +2555,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
+      <c r="A72" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx60(S16) ГОСТ 7798-77</v>
       </c>
@@ -2576,7 +2584,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
+      <c r="A73" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx65(S16) ГОСТ 7798-77</v>
       </c>
@@ -2605,7 +2613,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
+      <c r="A74" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx70(S16) ГОСТ 7798-77</v>
       </c>
@@ -2634,7 +2642,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="str">
+      <c r="A75" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx75(S16) ГОСТ 7798-77</v>
       </c>
@@ -2663,7 +2671,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="str">
+      <c r="A76" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx80(S16) ГОСТ 7798-77</v>
       </c>
@@ -2692,7 +2700,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
+      <c r="A77" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx85(S16) ГОСТ 7798-77</v>
       </c>
@@ -2721,7 +2729,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
+      <c r="A78" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx90(S16) ГОСТ 7798-77</v>
       </c>
@@ -2750,7 +2758,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
+      <c r="A79" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx95(S16) ГОСТ 7798-77</v>
       </c>
@@ -2779,7 +2787,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="str">
+      <c r="A80" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx100(S16) ГОСТ 7798-77</v>
       </c>
@@ -2808,7 +2816,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
+      <c r="A81" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx105(S16) ГОСТ 7798-77</v>
       </c>
@@ -2837,7 +2845,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="str">
+      <c r="A82" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx110(S16) ГОСТ 7798-77</v>
       </c>
@@ -2866,7 +2874,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="str">
+      <c r="A83" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx115(S16) ГОСТ 7798-77</v>
       </c>
@@ -2895,7 +2903,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="str">
+      <c r="A84" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx120(S16) ГОСТ 7798-77</v>
       </c>
@@ -2924,7 +2932,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="str">
+      <c r="A85" s="4" t="str">
         <f t="shared" si="6"/>
         <v>*Болт М10-6gx125(S16) ГОСТ 7798-77</v>
       </c>
@@ -2953,7 +2961,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="str">
+      <c r="A86" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx130(S16) ГОСТ 7798-77</v>
       </c>
@@ -2982,7 +2990,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="str">
+      <c r="A87" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx140(S16) ГОСТ 7798-77</v>
       </c>
@@ -3011,7 +3019,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="str">
+      <c r="A88" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx150(S16) ГОСТ 7798-77</v>
       </c>
@@ -3040,7 +3048,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="str">
+      <c r="A89" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx160(S16) ГОСТ 7798-77</v>
       </c>
@@ -3069,7 +3077,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="str">
+      <c r="A90" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx170(S16) ГОСТ 7798-77</v>
       </c>
@@ -3098,7 +3106,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="str">
+      <c r="A91" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx180(S16) ГОСТ 7798-77</v>
       </c>
@@ -3127,7 +3135,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="str">
+      <c r="A92" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx190(S16) ГОСТ 7798-77</v>
       </c>
@@ -3156,7 +3164,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="str">
+      <c r="A93" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Болт М10-6gx200(S16) ГОСТ 7798-77</v>
       </c>
@@ -3185,7 +3193,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="str">
+      <c r="A94" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М12-6gx14(S18) ГОСТ 7798-77</v>
       </c>
@@ -3219,7 +3227,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="str">
+      <c r="A95" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М12-6gx16(S18) ГОСТ 7798-77</v>
       </c>
@@ -3248,7 +3256,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="str">
+      <c r="A96" s="4" t="str">
         <f t="shared" ref="A96:A133" si="8">IF(K96="YES","Болт М"&amp;C96&amp;"-6gx"&amp;H96&amp;"(S"&amp;E96&amp;") ГОСТ 7798-77","*Болт М"&amp;C96&amp;"-6gx"&amp;H96&amp;"(S"&amp;E96&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М12-6gx18(S18) ГОСТ 7798-77</v>
       </c>
@@ -3277,7 +3285,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="str">
+      <c r="A97" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx20(S18) ГОСТ 7798-77</v>
       </c>
@@ -3306,7 +3314,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="str">
+      <c r="A98" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx22(S18) ГОСТ 7798-77</v>
       </c>
@@ -3335,7 +3343,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="str">
+      <c r="A99" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx25(S18) ГОСТ 7798-77</v>
       </c>
@@ -3364,7 +3372,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="str">
+      <c r="A100" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx28(S18) ГОСТ 7798-77</v>
       </c>
@@ -3393,7 +3401,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="str">
+      <c r="A101" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx30(S18) ГОСТ 7798-77</v>
       </c>
@@ -3422,7 +3430,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="str">
+      <c r="A102" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx32(S18) ГОСТ 7798-77</v>
       </c>
@@ -3451,7 +3459,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="str">
+      <c r="A103" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx35(S18) ГОСТ 7798-77</v>
       </c>
@@ -3480,7 +3488,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="str">
+      <c r="A104" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx38(S18) ГОСТ 7798-77</v>
       </c>
@@ -3509,7 +3517,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="str">
+      <c r="A105" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx40(S18) ГОСТ 7798-77</v>
       </c>
@@ -3538,7 +3546,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="str">
+      <c r="A106" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx45(S18) ГОСТ 7798-77</v>
       </c>
@@ -3567,7 +3575,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="str">
+      <c r="A107" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx50(S18) ГОСТ 7798-77</v>
       </c>
@@ -3596,7 +3604,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="str">
+      <c r="A108" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx55(S18) ГОСТ 7798-77</v>
       </c>
@@ -3625,7 +3633,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="str">
+      <c r="A109" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx60(S18) ГОСТ 7798-77</v>
       </c>
@@ -3654,7 +3662,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="str">
+      <c r="A110" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx65(S18) ГОСТ 7798-77</v>
       </c>
@@ -3683,7 +3691,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="str">
+      <c r="A111" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx70(S18) ГОСТ 7798-77</v>
       </c>
@@ -3712,7 +3720,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="str">
+      <c r="A112" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx75(S18) ГОСТ 7798-77</v>
       </c>
@@ -3741,7 +3749,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="str">
+      <c r="A113" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx80(S18) ГОСТ 7798-77</v>
       </c>
@@ -3770,7 +3778,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="str">
+      <c r="A114" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx85(S18) ГОСТ 7798-77</v>
       </c>
@@ -3799,7 +3807,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="str">
+      <c r="A115" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx90(S18) ГОСТ 7798-77</v>
       </c>
@@ -3828,7 +3836,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="str">
+      <c r="A116" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx95(S18) ГОСТ 7798-77</v>
       </c>
@@ -3857,7 +3865,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="str">
+      <c r="A117" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx100(S18) ГОСТ 7798-77</v>
       </c>
@@ -3886,7 +3894,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="str">
+      <c r="A118" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx105(S18) ГОСТ 7798-77</v>
       </c>
@@ -3915,7 +3923,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="str">
+      <c r="A119" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx110(S18) ГОСТ 7798-77</v>
       </c>
@@ -3944,7 +3952,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="str">
+      <c r="A120" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx115(S18) ГОСТ 7798-77</v>
       </c>
@@ -3973,7 +3981,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="str">
+      <c r="A121" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx120(S18) ГОСТ 7798-77</v>
       </c>
@@ -4002,7 +4010,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="str">
+      <c r="A122" s="4" t="str">
         <f t="shared" si="8"/>
         <v>*Болт М12-6gx125(S18) ГОСТ 7798-77</v>
       </c>
@@ -4031,7 +4039,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="str">
+      <c r="A123" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx130(S18) ГОСТ 7798-77</v>
       </c>
@@ -4060,7 +4068,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="str">
+      <c r="A124" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx140(S18) ГОСТ 7798-77</v>
       </c>
@@ -4089,7 +4097,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="str">
+      <c r="A125" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx150(S18) ГОСТ 7798-77</v>
       </c>
@@ -4118,7 +4126,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="str">
+      <c r="A126" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx160(S18) ГОСТ 7798-77</v>
       </c>
@@ -4147,7 +4155,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="str">
+      <c r="A127" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx170(S18) ГОСТ 7798-77</v>
       </c>
@@ -4176,7 +4184,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="str">
+      <c r="A128" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx180(S18) ГОСТ 7798-77</v>
       </c>
@@ -4205,7 +4213,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="str">
+      <c r="A129" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx190(S18) ГОСТ 7798-77</v>
       </c>
@@ -4234,7 +4242,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="str">
+      <c r="A130" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx200(S18) ГОСТ 7798-77</v>
       </c>
@@ -4263,7 +4271,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="str">
+      <c r="A131" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx220(S18) ГОСТ 7798-77</v>
       </c>
@@ -4292,7 +4300,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="str">
+      <c r="A132" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx240(S18) ГОСТ 7798-77</v>
       </c>
@@ -4321,7 +4329,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="str">
+      <c r="A133" s="4" t="str">
         <f t="shared" si="8"/>
         <v>Болт М12-6gx260(S18) ГОСТ 7798-77</v>
       </c>
@@ -4350,7 +4358,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="str">
+      <c r="A134" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М14-6gx16(S21) ГОСТ 7798-77</v>
       </c>
@@ -4381,7 +4389,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="str">
+      <c r="A135" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М14-6gx18(S21) ГОСТ 7798-77</v>
       </c>
@@ -4410,7 +4418,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="str">
+      <c r="A136" s="4" t="str">
         <f t="shared" ref="A136:A174" si="10">IF(K136="YES","Болт М"&amp;C136&amp;"-6gx"&amp;H136&amp;"(S"&amp;E136&amp;") ГОСТ 7798-77","*Болт М"&amp;C136&amp;"-6gx"&amp;H136&amp;"(S"&amp;E136&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М14-6gx20(S21) ГОСТ 7798-77</v>
       </c>
@@ -4436,7 +4444,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="str">
+      <c r="A137" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx22(S21) ГОСТ 7798-77</v>
       </c>
@@ -4465,7 +4473,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="str">
+      <c r="A138" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx25(S21) ГОСТ 7798-77</v>
       </c>
@@ -4491,7 +4499,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="str">
+      <c r="A139" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx28(S21) ГОСТ 7798-77</v>
       </c>
@@ -4520,7 +4528,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="str">
+      <c r="A140" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx30(S21) ГОСТ 7798-77</v>
       </c>
@@ -4546,7 +4554,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="str">
+      <c r="A141" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx32(S21) ГОСТ 7798-77</v>
       </c>
@@ -4575,7 +4583,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="str">
+      <c r="A142" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx35(S21) ГОСТ 7798-77</v>
       </c>
@@ -4601,7 +4609,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="str">
+      <c r="A143" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx38(S21) ГОСТ 7798-77</v>
       </c>
@@ -4630,7 +4638,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="str">
+      <c r="A144" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx40(S21) ГОСТ 7798-77</v>
       </c>
@@ -4656,7 +4664,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="str">
+      <c r="A145" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx45(S21) ГОСТ 7798-77</v>
       </c>
@@ -4682,7 +4690,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="str">
+      <c r="A146" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx50(S21) ГОСТ 7798-77</v>
       </c>
@@ -4708,7 +4716,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="str">
+      <c r="A147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx55(S21) ГОСТ 7798-77</v>
       </c>
@@ -4734,7 +4742,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="str">
+      <c r="A148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx60(S21) ГОСТ 7798-77</v>
       </c>
@@ -4760,7 +4768,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="str">
+      <c r="A149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx65(S21) ГОСТ 7798-77</v>
       </c>
@@ -4786,7 +4794,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="str">
+      <c r="A150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx70(S21) ГОСТ 7798-77</v>
       </c>
@@ -4812,7 +4820,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="str">
+      <c r="A151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx75(S21) ГОСТ 7798-77</v>
       </c>
@@ -4838,7 +4846,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="str">
+      <c r="A152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx80(S21) ГОСТ 7798-77</v>
       </c>
@@ -4864,7 +4872,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="str">
+      <c r="A153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx85(S21) ГОСТ 7798-77</v>
       </c>
@@ -4893,7 +4901,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="str">
+      <c r="A154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx90(S21) ГОСТ 7798-77</v>
       </c>
@@ -4919,7 +4927,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="str">
+      <c r="A155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx95(S21) ГОСТ 7798-77</v>
       </c>
@@ -4948,7 +4956,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="str">
+      <c r="A156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx100(S21) ГОСТ 7798-77</v>
       </c>
@@ -4974,7 +4982,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="str">
+      <c r="A157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx105(S21) ГОСТ 7798-77</v>
       </c>
@@ -5003,7 +5011,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="str">
+      <c r="A158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx110(S21) ГОСТ 7798-77</v>
       </c>
@@ -5029,7 +5037,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="str">
+      <c r="A159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx115(S21) ГОСТ 7798-77</v>
       </c>
@@ -5058,7 +5066,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="str">
+      <c r="A160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx120(S21) ГОСТ 7798-77</v>
       </c>
@@ -5084,7 +5092,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="str">
+      <c r="A161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx125(S21) ГОСТ 7798-77</v>
       </c>
@@ -5113,7 +5121,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="str">
+      <c r="A162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx130(S21) ГОСТ 7798-77</v>
       </c>
@@ -5139,7 +5147,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="str">
+      <c r="A163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx140(S21) ГОСТ 7798-77</v>
       </c>
@@ -5165,7 +5173,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="str">
+      <c r="A164" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx150(S21) ГОСТ 7798-77</v>
       </c>
@@ -5191,7 +5199,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="str">
+      <c r="A165" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx160(S21) ГОСТ 7798-77</v>
       </c>
@@ -5217,7 +5225,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="str">
+      <c r="A166" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx170(S21) ГОСТ 7798-77</v>
       </c>
@@ -5243,7 +5251,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="str">
+      <c r="A167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx180(S21) ГОСТ 7798-77</v>
       </c>
@@ -5269,7 +5277,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="str">
+      <c r="A168" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx190(S21) ГОСТ 7798-77</v>
       </c>
@@ -5295,7 +5303,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="str">
+      <c r="A169" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx200(S21) ГОСТ 7798-77</v>
       </c>
@@ -5321,7 +5329,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="str">
+      <c r="A170" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx220(S21) ГОСТ 7798-77</v>
       </c>
@@ -5347,7 +5355,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="str">
+      <c r="A171" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx240(S21) ГОСТ 7798-77</v>
       </c>
@@ -5373,7 +5381,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="str">
+      <c r="A172" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx260(S21) ГОСТ 7798-77</v>
       </c>
@@ -5399,7 +5407,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="str">
+      <c r="A173" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx280(S21) ГОСТ 7798-77</v>
       </c>
@@ -5425,7 +5433,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="str">
+      <c r="A174" s="4" t="str">
         <f t="shared" si="10"/>
         <v>*Болт М14-6gx300(S21) ГОСТ 7798-77</v>
       </c>
@@ -5451,7 +5459,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="str">
+      <c r="A175" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М16-6gx18(S24) ГОСТ 7798-77</v>
       </c>
@@ -5485,7 +5493,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="str">
+      <c r="A176" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М16-6gx20(S24) ГОСТ 7798-77</v>
       </c>
@@ -5514,7 +5522,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="str">
+      <c r="A177" s="4" t="str">
         <f t="shared" ref="A177:A214" si="12">IF(K177="YES","Болт М"&amp;C177&amp;"-6gx"&amp;H177&amp;"(S"&amp;E177&amp;") ГОСТ 7798-77","*Болт М"&amp;C177&amp;"-6gx"&amp;H177&amp;"(S"&amp;E177&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М16-6gx22(S24) ГОСТ 7798-77</v>
       </c>
@@ -5543,7 +5551,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="str">
+      <c r="A178" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx25(S24) ГОСТ 7798-77</v>
       </c>
@@ -5572,7 +5580,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="str">
+      <c r="A179" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx28(S24) ГОСТ 7798-77</v>
       </c>
@@ -5601,7 +5609,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="str">
+      <c r="A180" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx30(S24) ГОСТ 7798-77</v>
       </c>
@@ -5630,7 +5638,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="str">
+      <c r="A181" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx32(S24) ГОСТ 7798-77</v>
       </c>
@@ -5659,7 +5667,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="str">
+      <c r="A182" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx35(S24) ГОСТ 7798-77</v>
       </c>
@@ -5688,7 +5696,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="str">
+      <c r="A183" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx38(S24) ГОСТ 7798-77</v>
       </c>
@@ -5717,7 +5725,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="str">
+      <c r="A184" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx40(S24) ГОСТ 7798-77</v>
       </c>
@@ -5746,7 +5754,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="str">
+      <c r="A185" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx45(S24) ГОСТ 7798-77</v>
       </c>
@@ -5775,7 +5783,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="str">
+      <c r="A186" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx50(S24) ГОСТ 7798-77</v>
       </c>
@@ -5804,7 +5812,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="str">
+      <c r="A187" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx55(S24) ГОСТ 7798-77</v>
       </c>
@@ -5833,7 +5841,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="str">
+      <c r="A188" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx60(S24) ГОСТ 7798-77</v>
       </c>
@@ -5862,7 +5870,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="str">
+      <c r="A189" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx65(S24) ГОСТ 7798-77</v>
       </c>
@@ -5891,7 +5899,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="str">
+      <c r="A190" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx70(S24) ГОСТ 7798-77</v>
       </c>
@@ -5920,7 +5928,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="str">
+      <c r="A191" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx75(S24) ГОСТ 7798-77</v>
       </c>
@@ -5949,7 +5957,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="str">
+      <c r="A192" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx80(S24) ГОСТ 7798-77</v>
       </c>
@@ -5978,7 +5986,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="str">
+      <c r="A193" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx85(S24) ГОСТ 7798-77</v>
       </c>
@@ -6007,7 +6015,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="str">
+      <c r="A194" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx90(S24) ГОСТ 7798-77</v>
       </c>
@@ -6036,7 +6044,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="str">
+      <c r="A195" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx95(S24) ГОСТ 7798-77</v>
       </c>
@@ -6065,7 +6073,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="str">
+      <c r="A196" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx100(S24) ГОСТ 7798-77</v>
       </c>
@@ -6094,7 +6102,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="str">
+      <c r="A197" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx105(S24) ГОСТ 7798-77</v>
       </c>
@@ -6123,7 +6131,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="str">
+      <c r="A198" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx110(S24) ГОСТ 7798-77</v>
       </c>
@@ -6152,7 +6160,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="str">
+      <c r="A199" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx115(S24) ГОСТ 7798-77</v>
       </c>
@@ -6181,7 +6189,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="str">
+      <c r="A200" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx120(S24) ГОСТ 7798-77</v>
       </c>
@@ -6210,7 +6218,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="str">
+      <c r="A201" s="4" t="str">
         <f t="shared" si="12"/>
         <v>*Болт М16-6gx125(S24) ГОСТ 7798-77</v>
       </c>
@@ -6239,7 +6247,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="str">
+      <c r="A202" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx130(S24) ГОСТ 7798-77</v>
       </c>
@@ -6268,7 +6276,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="str">
+      <c r="A203" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx140(S24) ГОСТ 7798-77</v>
       </c>
@@ -6297,7 +6305,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="str">
+      <c r="A204" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx150(S24) ГОСТ 7798-77</v>
       </c>
@@ -6326,7 +6334,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="str">
+      <c r="A205" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx160(S24) ГОСТ 7798-77</v>
       </c>
@@ -6355,7 +6363,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="str">
+      <c r="A206" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx170(S24) ГОСТ 7798-77</v>
       </c>
@@ -6384,7 +6392,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="str">
+      <c r="A207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx180(S24) ГОСТ 7798-77</v>
       </c>
@@ -6413,7 +6421,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="str">
+      <c r="A208" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx190(S24) ГОСТ 7798-77</v>
       </c>
@@ -6442,7 +6450,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="str">
+      <c r="A209" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx200(S24) ГОСТ 7798-77</v>
       </c>
@@ -6471,7 +6479,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="str">
+      <c r="A210" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx220(S24) ГОСТ 7798-77</v>
       </c>
@@ -6500,7 +6508,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="str">
+      <c r="A211" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx240(S24) ГОСТ 7798-77</v>
       </c>
@@ -6529,7 +6537,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="str">
+      <c r="A212" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx260(S24) ГОСТ 7798-77</v>
       </c>
@@ -6558,7 +6566,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="str">
+      <c r="A213" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx280(S24) ГОСТ 7798-77</v>
       </c>
@@ -6587,7 +6595,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="str">
+      <c r="A214" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Болт М16-6gx300(S24) ГОСТ 7798-77</v>
       </c>
@@ -6616,7 +6624,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="str">
+      <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М18-6gx20(S27) ГОСТ 7798-77</v>
       </c>
@@ -6647,7 +6655,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="str">
+      <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М18-6gx22(S27) ГОСТ 7798-77</v>
       </c>
@@ -6676,7 +6684,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="str">
+      <c r="A217" s="4" t="str">
         <f t="shared" ref="A217:A253" si="14">IF(K217="YES","Болт М"&amp;C217&amp;"-6gx"&amp;H217&amp;"(S"&amp;E217&amp;") ГОСТ 7798-77","*Болт М"&amp;C217&amp;"-6gx"&amp;H217&amp;"(S"&amp;E217&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М18-6gx25(S27) ГОСТ 7798-77</v>
       </c>
@@ -6702,7 +6710,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="str">
+      <c r="A218" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx28(S27) ГОСТ 7798-77</v>
       </c>
@@ -6731,7 +6739,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="str">
+      <c r="A219" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx30(S27) ГОСТ 7798-77</v>
       </c>
@@ -6757,7 +6765,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="str">
+      <c r="A220" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx32(S27) ГОСТ 7798-77</v>
       </c>
@@ -6786,7 +6794,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="str">
+      <c r="A221" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx35(S27) ГОСТ 7798-77</v>
       </c>
@@ -6812,7 +6820,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="str">
+      <c r="A222" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx38(S27) ГОСТ 7798-77</v>
       </c>
@@ -6841,7 +6849,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="str">
+      <c r="A223" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx40(S27) ГОСТ 7798-77</v>
       </c>
@@ -6867,7 +6875,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="str">
+      <c r="A224" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx45(S27) ГОСТ 7798-77</v>
       </c>
@@ -6893,7 +6901,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="str">
+      <c r="A225" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx50(S27) ГОСТ 7798-77</v>
       </c>
@@ -6919,7 +6927,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="str">
+      <c r="A226" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx55(S27) ГОСТ 7798-77</v>
       </c>
@@ -6945,7 +6953,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="str">
+      <c r="A227" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx60(S27) ГОСТ 7798-77</v>
       </c>
@@ -6971,7 +6979,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="str">
+      <c r="A228" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx65(S27) ГОСТ 7798-77</v>
       </c>
@@ -6997,7 +7005,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="str">
+      <c r="A229" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx70(S27) ГОСТ 7798-77</v>
       </c>
@@ -7023,7 +7031,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="str">
+      <c r="A230" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx75(S27) ГОСТ 7798-77</v>
       </c>
@@ -7049,7 +7057,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="str">
+      <c r="A231" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx80(S27) ГОСТ 7798-77</v>
       </c>
@@ -7075,7 +7083,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="str">
+      <c r="A232" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx85(S27) ГОСТ 7798-77</v>
       </c>
@@ -7104,7 +7112,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="str">
+      <c r="A233" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx90(S27) ГОСТ 7798-77</v>
       </c>
@@ -7130,7 +7138,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="str">
+      <c r="A234" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx95(S27) ГОСТ 7798-77</v>
       </c>
@@ -7159,7 +7167,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="str">
+      <c r="A235" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx100(S27) ГОСТ 7798-77</v>
       </c>
@@ -7185,7 +7193,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="str">
+      <c r="A236" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx105(S27) ГОСТ 7798-77</v>
       </c>
@@ -7214,7 +7222,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="str">
+      <c r="A237" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx110(S27) ГОСТ 7798-77</v>
       </c>
@@ -7240,7 +7248,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="str">
+      <c r="A238" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx115(S27) ГОСТ 7798-77</v>
       </c>
@@ -7269,7 +7277,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="str">
+      <c r="A239" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx120(S27) ГОСТ 7798-77</v>
       </c>
@@ -7295,7 +7303,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="str">
+      <c r="A240" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx125(S27) ГОСТ 7798-77</v>
       </c>
@@ -7324,7 +7332,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="str">
+      <c r="A241" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx130(S27) ГОСТ 7798-77</v>
       </c>
@@ -7350,7 +7358,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="str">
+      <c r="A242" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx140(S27) ГОСТ 7798-77</v>
       </c>
@@ -7376,7 +7384,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="str">
+      <c r="A243" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx150(S27) ГОСТ 7798-77</v>
       </c>
@@ -7402,7 +7410,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="str">
+      <c r="A244" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx160(S27) ГОСТ 7798-77</v>
       </c>
@@ -7428,7 +7436,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="str">
+      <c r="A245" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx170(S27) ГОСТ 7798-77</v>
       </c>
@@ -7454,7 +7462,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="str">
+      <c r="A246" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx180(S27) ГОСТ 7798-77</v>
       </c>
@@ -7480,7 +7488,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="str">
+      <c r="A247" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx190(S27) ГОСТ 7798-77</v>
       </c>
@@ -7506,7 +7514,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="str">
+      <c r="A248" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx200(S27) ГОСТ 7798-77</v>
       </c>
@@ -7532,7 +7540,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="str">
+      <c r="A249" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx220(S27) ГОСТ 7798-77</v>
       </c>
@@ -7558,7 +7566,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="str">
+      <c r="A250" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx240(S27) ГОСТ 7798-77</v>
       </c>
@@ -7584,7 +7592,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="str">
+      <c r="A251" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx260(S27) ГОСТ 7798-77</v>
       </c>
@@ -7610,7 +7618,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="str">
+      <c r="A252" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx280(S27) ГОСТ 7798-77</v>
       </c>
@@ -7636,7 +7644,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="str">
+      <c r="A253" s="4" t="str">
         <f t="shared" si="14"/>
         <v>*Болт М18-6gx300(S27) ГОСТ 7798-77</v>
       </c>
@@ -7662,7 +7670,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="str">
+      <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М20-6gx25(S30) ГОСТ 7798-77</v>
       </c>
@@ -7696,7 +7704,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="str">
+      <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М20-6gx28(S30) ГОСТ 7798-77</v>
       </c>
@@ -7725,7 +7733,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="str">
+      <c r="A256" s="4" t="str">
         <f t="shared" ref="A256:A290" si="16">IF(K256="YES","Болт М"&amp;C256&amp;"-6gx"&amp;H256&amp;"(S"&amp;E256&amp;") ГОСТ 7798-77","*Болт М"&amp;C256&amp;"-6gx"&amp;H256&amp;"(S"&amp;E256&amp;") ГОСТ 7798-77")</f>
         <v>Болт М20-6gx30(S30) ГОСТ 7798-77</v>
       </c>
@@ -7754,7 +7762,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="str">
+      <c r="A257" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx32(S30) ГОСТ 7798-77</v>
       </c>
@@ -7783,7 +7791,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="str">
+      <c r="A258" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx35(S30) ГОСТ 7798-77</v>
       </c>
@@ -7812,7 +7820,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="str">
+      <c r="A259" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx38(S30) ГОСТ 7798-77</v>
       </c>
@@ -7841,7 +7849,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="str">
+      <c r="A260" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx40(S30) ГОСТ 7798-77</v>
       </c>
@@ -7870,7 +7878,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="str">
+      <c r="A261" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx45(S30) ГОСТ 7798-77</v>
       </c>
@@ -7899,7 +7907,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="str">
+      <c r="A262" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx50(S30) ГОСТ 7798-77</v>
       </c>
@@ -7928,7 +7936,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="str">
+      <c r="A263" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx55(S30) ГОСТ 7798-77</v>
       </c>
@@ -7957,7 +7965,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="str">
+      <c r="A264" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx60(S30) ГОСТ 7798-77</v>
       </c>
@@ -7986,7 +7994,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="str">
+      <c r="A265" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx65(S30) ГОСТ 7798-77</v>
       </c>
@@ -8015,7 +8023,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="str">
+      <c r="A266" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx70(S30) ГОСТ 7798-77</v>
       </c>
@@ -8044,7 +8052,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="str">
+      <c r="A267" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx75(S30) ГОСТ 7798-77</v>
       </c>
@@ -8073,7 +8081,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="str">
+      <c r="A268" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx80(S30) ГОСТ 7798-77</v>
       </c>
@@ -8102,7 +8110,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="str">
+      <c r="A269" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx85(S30) ГОСТ 7798-77</v>
       </c>
@@ -8131,7 +8139,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="str">
+      <c r="A270" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx90(S30) ГОСТ 7798-77</v>
       </c>
@@ -8160,7 +8168,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="str">
+      <c r="A271" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx95(S30) ГОСТ 7798-77</v>
       </c>
@@ -8189,7 +8197,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="str">
+      <c r="A272" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx100(S30) ГОСТ 7798-77</v>
       </c>
@@ -8218,7 +8226,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="str">
+      <c r="A273" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx105(S30) ГОСТ 7798-77</v>
       </c>
@@ -8247,7 +8255,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="str">
+      <c r="A274" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx110(S30) ГОСТ 7798-77</v>
       </c>
@@ -8276,7 +8284,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="str">
+      <c r="A275" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx115(S30) ГОСТ 7798-77</v>
       </c>
@@ -8305,7 +8313,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="str">
+      <c r="A276" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx120(S30) ГОСТ 7798-77</v>
       </c>
@@ -8334,7 +8342,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="str">
+      <c r="A277" s="4" t="str">
         <f t="shared" si="16"/>
         <v>*Болт М20-6gx125(S30) ГОСТ 7798-77</v>
       </c>
@@ -8363,7 +8371,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="str">
+      <c r="A278" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx130(S30) ГОСТ 7798-77</v>
       </c>
@@ -8392,7 +8400,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="str">
+      <c r="A279" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx140(S30) ГОСТ 7798-77</v>
       </c>
@@ -8421,7 +8429,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="str">
+      <c r="A280" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx150(S30) ГОСТ 7798-77</v>
       </c>
@@ -8450,7 +8458,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="str">
+      <c r="A281" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx160(S30) ГОСТ 7798-77</v>
       </c>
@@ -8479,7 +8487,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="str">
+      <c r="A282" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx170(S30) ГОСТ 7798-77</v>
       </c>
@@ -8508,7 +8516,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="str">
+      <c r="A283" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx180(S30) ГОСТ 7798-77</v>
       </c>
@@ -8537,7 +8545,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="str">
+      <c r="A284" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx190(S30) ГОСТ 7798-77</v>
       </c>
@@ -8566,7 +8574,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="str">
+      <c r="A285" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx200(S30) ГОСТ 7798-77</v>
       </c>
@@ -8595,7 +8603,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="str">
+      <c r="A286" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx220(S30) ГОСТ 7798-77</v>
       </c>
@@ -8624,7 +8632,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="str">
+      <c r="A287" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx240(S30) ГОСТ 7798-77</v>
       </c>
@@ -8653,7 +8661,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="str">
+      <c r="A288" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx260(S30) ГОСТ 7798-77</v>
       </c>
@@ -8682,7 +8690,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="str">
+      <c r="A289" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx280(S30) ГОСТ 7798-77</v>
       </c>
@@ -8711,7 +8719,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="str">
+      <c r="A290" s="4" t="str">
         <f t="shared" si="16"/>
         <v>Болт М20-6gx300(S30) ГОСТ 7798-77</v>
       </c>
@@ -8740,7 +8748,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="str">
+      <c r="A291" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М22-6gx28(S34) ГОСТ 7798-77</v>
       </c>
@@ -8771,7 +8779,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="str">
+      <c r="A292" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М22-6gx30(S34) ГОСТ 7798-77</v>
       </c>
@@ -8797,7 +8805,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="str">
+      <c r="A293" s="4" t="str">
         <f t="shared" ref="A293:A326" si="20">IF(K293="YES","Болт М"&amp;C293&amp;"-6gx"&amp;H293&amp;"(S"&amp;E293&amp;") ГОСТ 7798-77","*Болт М"&amp;C293&amp;"-6gx"&amp;H293&amp;"(S"&amp;E293&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М22-6gx32(S34) ГОСТ 7798-77</v>
       </c>
@@ -8826,7 +8834,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="str">
+      <c r="A294" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx35(S34) ГОСТ 7798-77</v>
       </c>
@@ -8852,7 +8860,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="str">
+      <c r="A295" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx38(S34) ГОСТ 7798-77</v>
       </c>
@@ -8881,7 +8889,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="str">
+      <c r="A296" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx40(S34) ГОСТ 7798-77</v>
       </c>
@@ -8907,7 +8915,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="str">
+      <c r="A297" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx45(S34) ГОСТ 7798-77</v>
       </c>
@@ -8933,7 +8941,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="str">
+      <c r="A298" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx50(S34) ГОСТ 7798-77</v>
       </c>
@@ -8959,7 +8967,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="str">
+      <c r="A299" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx55(S34) ГОСТ 7798-77</v>
       </c>
@@ -8985,7 +8993,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="str">
+      <c r="A300" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx60(S34) ГОСТ 7798-77</v>
       </c>
@@ -9011,7 +9019,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="str">
+      <c r="A301" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx65(S34) ГОСТ 7798-77</v>
       </c>
@@ -9037,7 +9045,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="str">
+      <c r="A302" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx70(S34) ГОСТ 7798-77</v>
       </c>
@@ -9063,7 +9071,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="str">
+      <c r="A303" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx75(S34) ГОСТ 7798-77</v>
       </c>
@@ -9089,7 +9097,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="str">
+      <c r="A304" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx80(S34) ГОСТ 7798-77</v>
       </c>
@@ -9115,7 +9123,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="str">
+      <c r="A305" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx85(S34) ГОСТ 7798-77</v>
       </c>
@@ -9144,7 +9152,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="str">
+      <c r="A306" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx90(S34) ГОСТ 7798-77</v>
       </c>
@@ -9170,7 +9178,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="str">
+      <c r="A307" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx95(S34) ГОСТ 7798-77</v>
       </c>
@@ -9199,7 +9207,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="str">
+      <c r="A308" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx100(S34) ГОСТ 7798-77</v>
       </c>
@@ -9225,7 +9233,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="str">
+      <c r="A309" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx105(S34) ГОСТ 7798-77</v>
       </c>
@@ -9254,7 +9262,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="str">
+      <c r="A310" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx110(S34) ГОСТ 7798-77</v>
       </c>
@@ -9280,7 +9288,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="str">
+      <c r="A311" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx115(S34) ГОСТ 7798-77</v>
       </c>
@@ -9309,7 +9317,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="str">
+      <c r="A312" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx120(S34) ГОСТ 7798-77</v>
       </c>
@@ -9335,7 +9343,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="str">
+      <c r="A313" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx125(S34) ГОСТ 7798-77</v>
       </c>
@@ -9364,7 +9372,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="str">
+      <c r="A314" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx130(S34) ГОСТ 7798-77</v>
       </c>
@@ -9390,7 +9398,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="str">
+      <c r="A315" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx140(S34) ГОСТ 7798-77</v>
       </c>
@@ -9416,7 +9424,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="str">
+      <c r="A316" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx150(S34) ГОСТ 7798-77</v>
       </c>
@@ -9442,7 +9450,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="str">
+      <c r="A317" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx160(S34) ГОСТ 7798-77</v>
       </c>
@@ -9468,7 +9476,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="str">
+      <c r="A318" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx170(S34) ГОСТ 7798-77</v>
       </c>
@@ -9494,7 +9502,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="str">
+      <c r="A319" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx180(S34) ГОСТ 7798-77</v>
       </c>
@@ -9520,7 +9528,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="str">
+      <c r="A320" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx190(S34) ГОСТ 7798-77</v>
       </c>
@@ -9546,7 +9554,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="str">
+      <c r="A321" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx200(S34) ГОСТ 7798-77</v>
       </c>
@@ -9572,7 +9580,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="str">
+      <c r="A322" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx220(S34) ГОСТ 7798-77</v>
       </c>
@@ -9598,7 +9606,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="str">
+      <c r="A323" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx240(S34) ГОСТ 7798-77</v>
       </c>
@@ -9624,7 +9632,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="str">
+      <c r="A324" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx260(S34) ГОСТ 7798-77</v>
       </c>
@@ -9650,7 +9658,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="str">
+      <c r="A325" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx280(S34) ГОСТ 7798-77</v>
       </c>
@@ -9676,7 +9684,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="str">
+      <c r="A326" s="4" t="str">
         <f t="shared" si="20"/>
         <v>*Болт М22-6gx300(S34) ГОСТ 7798-77</v>
       </c>
@@ -9702,7 +9710,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="str">
+      <c r="A327" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М24-6gx32(S36) ГОСТ 7798-77</v>
       </c>
@@ -9736,7 +9744,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="str">
+      <c r="A328" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М24-6gx35(S36) ГОСТ 7798-77</v>
       </c>
@@ -9765,7 +9773,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="str">
+      <c r="A329" s="4" t="str">
         <f t="shared" ref="A329:A360" si="23">IF(K329="YES","Болт М"&amp;C329&amp;"-6gx"&amp;H329&amp;"(S"&amp;E329&amp;") ГОСТ 7798-77","*Болт М"&amp;C329&amp;"-6gx"&amp;H329&amp;"(S"&amp;E329&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М24-6gx38(S36) ГОСТ 7798-77</v>
       </c>
@@ -9794,7 +9802,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="str">
+      <c r="A330" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx40(S36) ГОСТ 7798-77</v>
       </c>
@@ -9823,7 +9831,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="str">
+      <c r="A331" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx45(S36) ГОСТ 7798-77</v>
       </c>
@@ -9852,7 +9860,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="str">
+      <c r="A332" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx50(S36) ГОСТ 7798-77</v>
       </c>
@@ -9881,7 +9889,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="str">
+      <c r="A333" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx55(S36) ГОСТ 7798-77</v>
       </c>
@@ -9910,7 +9918,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="str">
+      <c r="A334" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx60(S36) ГОСТ 7798-77</v>
       </c>
@@ -9939,7 +9947,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="str">
+      <c r="A335" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx65(S36) ГОСТ 7798-77</v>
       </c>
@@ -9968,7 +9976,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="str">
+      <c r="A336" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx70(S36) ГОСТ 7798-77</v>
       </c>
@@ -9997,7 +10005,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="str">
+      <c r="A337" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx75(S36) ГОСТ 7798-77</v>
       </c>
@@ -10026,7 +10034,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="str">
+      <c r="A338" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx80(S36) ГОСТ 7798-77</v>
       </c>
@@ -10055,7 +10063,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="str">
+      <c r="A339" s="4" t="str">
         <f t="shared" si="23"/>
         <v>*Болт М24-6gx85(S36) ГОСТ 7798-77</v>
       </c>
@@ -10084,7 +10092,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="str">
+      <c r="A340" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx90(S36) ГОСТ 7798-77</v>
       </c>
@@ -10113,7 +10121,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="str">
+      <c r="A341" s="4" t="str">
         <f t="shared" si="23"/>
         <v>*Болт М24-6gx95(S36) ГОСТ 7798-77</v>
       </c>
@@ -10142,7 +10150,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="str">
+      <c r="A342" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx100(S36) ГОСТ 7798-77</v>
       </c>
@@ -10171,7 +10179,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="str">
+      <c r="A343" s="4" t="str">
         <f t="shared" si="23"/>
         <v>*Болт М24-6gx105(S36) ГОСТ 7798-77</v>
       </c>
@@ -10200,7 +10208,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="str">
+      <c r="A344" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx110(S36) ГОСТ 7798-77</v>
       </c>
@@ -10229,7 +10237,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="str">
+      <c r="A345" s="4" t="str">
         <f t="shared" si="23"/>
         <v>*Болт М24-6gx115(S36) ГОСТ 7798-77</v>
       </c>
@@ -10258,7 +10266,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="str">
+      <c r="A346" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx120(S36) ГОСТ 7798-77</v>
       </c>
@@ -10287,7 +10295,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="str">
+      <c r="A347" s="4" t="str">
         <f t="shared" si="23"/>
         <v>*Болт М24-6gx125(S36) ГОСТ 7798-77</v>
       </c>
@@ -10316,7 +10324,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="str">
+      <c r="A348" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx130(S36) ГОСТ 7798-77</v>
       </c>
@@ -10345,7 +10353,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="str">
+      <c r="A349" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx140(S36) ГОСТ 7798-77</v>
       </c>
@@ -10374,7 +10382,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="str">
+      <c r="A350" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx150(S36) ГОСТ 7798-77</v>
       </c>
@@ -10403,7 +10411,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="str">
+      <c r="A351" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx160(S36) ГОСТ 7798-77</v>
       </c>
@@ -10432,7 +10440,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="str">
+      <c r="A352" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx170(S36) ГОСТ 7798-77</v>
       </c>
@@ -10461,7 +10469,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="str">
+      <c r="A353" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx180(S36) ГОСТ 7798-77</v>
       </c>
@@ -10490,7 +10498,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="str">
+      <c r="A354" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx190(S36) ГОСТ 7798-77</v>
       </c>
@@ -10519,7 +10527,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="str">
+      <c r="A355" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx200(S36) ГОСТ 7798-77</v>
       </c>
@@ -10548,7 +10556,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="str">
+      <c r="A356" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx220(S36) ГОСТ 7798-77</v>
       </c>
@@ -10577,7 +10585,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="str">
+      <c r="A357" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx240(S36) ГОСТ 7798-77</v>
       </c>
@@ -10606,7 +10614,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="str">
+      <c r="A358" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx260(S36) ГОСТ 7798-77</v>
       </c>
@@ -10635,7 +10643,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="str">
+      <c r="A359" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx280(S36) ГОСТ 7798-77</v>
       </c>
@@ -10664,7 +10672,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="str">
+      <c r="A360" s="4" t="str">
         <f t="shared" si="23"/>
         <v>Болт М24-6gx300(S36) ГОСТ 7798-77</v>
       </c>
@@ -10693,7 +10701,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="str">
+      <c r="A361" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М27-6gx35(S41) ГОСТ 7798-77</v>
       </c>
@@ -10724,7 +10732,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="str">
+      <c r="A362" s="4" t="str">
         <f t="shared" si="3"/>
         <v>*Болт М27-6gx38(S41) ГОСТ 7798-77</v>
       </c>
@@ -10753,7 +10761,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="str">
+      <c r="A363" s="4" t="str">
         <f t="shared" ref="A363:A393" si="26">IF(K363="YES","Болт М"&amp;C363&amp;"-6gx"&amp;H363&amp;"(S"&amp;E363&amp;") ГОСТ 7798-77","*Болт М"&amp;C363&amp;"-6gx"&amp;H363&amp;"(S"&amp;E363&amp;") ГОСТ 7798-77")</f>
         <v>*Болт М27-6gx40(S41) ГОСТ 7798-77</v>
       </c>
@@ -10779,7 +10787,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="str">
+      <c r="A364" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx45(S41) ГОСТ 7798-77</v>
       </c>
@@ -10805,7 +10813,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="str">
+      <c r="A365" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx50(S41) ГОСТ 7798-77</v>
       </c>
@@ -10831,7 +10839,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="str">
+      <c r="A366" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx55(S41) ГОСТ 7798-77</v>
       </c>
@@ -10857,7 +10865,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="str">
+      <c r="A367" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx60(S41) ГОСТ 7798-77</v>
       </c>
@@ -10883,7 +10891,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="str">
+      <c r="A368" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx65(S41) ГОСТ 7798-77</v>
       </c>
@@ -10909,7 +10917,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="str">
+      <c r="A369" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx70(S41) ГОСТ 7798-77</v>
       </c>
@@ -10935,7 +10943,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="str">
+      <c r="A370" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx75(S41) ГОСТ 7798-77</v>
       </c>
@@ -10961,7 +10969,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="str">
+      <c r="A371" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx80(S41) ГОСТ 7798-77</v>
       </c>
@@ -10987,7 +10995,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="str">
+      <c r="A372" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx85(S41) ГОСТ 7798-77</v>
       </c>
@@ -11016,7 +11024,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="str">
+      <c r="A373" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx90(S41) ГОСТ 7798-77</v>
       </c>
@@ -11042,7 +11050,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="str">
+      <c r="A374" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx95(S41) ГОСТ 7798-77</v>
       </c>
@@ -11071,7 +11079,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="str">
+      <c r="A375" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx100(S41) ГОСТ 7798-77</v>
       </c>
@@ -11097,7 +11105,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="str">
+      <c r="A376" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx105(S41) ГОСТ 7798-77</v>
       </c>
@@ -11126,7 +11134,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="str">
+      <c r="A377" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx110(S41) ГОСТ 7798-77</v>
       </c>
@@ -11152,7 +11160,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="str">
+      <c r="A378" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx115(S41) ГОСТ 7798-77</v>
       </c>
@@ -11181,7 +11189,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="str">
+      <c r="A379" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx120(S41) ГОСТ 7798-77</v>
       </c>
@@ -11207,7 +11215,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="str">
+      <c r="A380" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx125(S41) ГОСТ 7798-77</v>
       </c>
@@ -11236,7 +11244,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="str">
+      <c r="A381" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx130(S41) ГОСТ 7798-77</v>
       </c>
@@ -11262,7 +11270,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="str">
+      <c r="A382" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx140(S41) ГОСТ 7798-77</v>
       </c>
@@ -11288,7 +11296,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="str">
+      <c r="A383" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx150(S41) ГОСТ 7798-77</v>
       </c>
@@ -11314,7 +11322,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="str">
+      <c r="A384" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx160(S41) ГОСТ 7798-77</v>
       </c>
@@ -11340,7 +11348,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="str">
+      <c r="A385" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx170(S41) ГОСТ 7798-77</v>
       </c>
@@ -11366,7 +11374,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="str">
+      <c r="A386" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx180(S41) ГОСТ 7798-77</v>
       </c>
@@ -11392,7 +11400,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="str">
+      <c r="A387" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx190(S41) ГОСТ 7798-77</v>
       </c>
@@ -11418,7 +11426,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="str">
+      <c r="A388" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx200(S41) ГОСТ 7798-77</v>
       </c>
@@ -11444,7 +11452,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="str">
+      <c r="A389" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx220(S41) ГОСТ 7798-77</v>
       </c>
@@ -11470,7 +11478,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="str">
+      <c r="A390" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx240(S41) ГОСТ 7798-77</v>
       </c>
@@ -11496,7 +11504,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="str">
+      <c r="A391" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx260(S41) ГОСТ 7798-77</v>
       </c>
@@ -11522,7 +11530,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="str">
+      <c r="A392" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx280(S41) ГОСТ 7798-77</v>
       </c>
@@ -11548,7 +11556,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="str">
+      <c r="A393" s="4" t="str">
         <f t="shared" si="26"/>
         <v>*Болт М27-6gx300(S41) ГОСТ 7798-77</v>
       </c>
@@ -11574,7 +11582,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="str">
+      <c r="A394" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М30-6gx40(S46) ГОСТ 7798-77</v>
       </c>
@@ -11608,7 +11616,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="str">
+      <c r="A395" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М30-6gx45(S46) ГОСТ 7798-77</v>
       </c>
@@ -11637,7 +11645,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="str">
+      <c r="A396" s="4" t="str">
         <f t="shared" ref="A396:A424" si="29">IF(K396="YES","Болт М"&amp;C396&amp;"-6gx"&amp;H396&amp;"(S"&amp;E396&amp;") ГОСТ 7798-77","*Болт М"&amp;C396&amp;"-6gx"&amp;H396&amp;"(S"&amp;E396&amp;") ГОСТ 7798-77")</f>
         <v>Болт М30-6gx50(S46) ГОСТ 7798-77</v>
       </c>
@@ -11666,7 +11674,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="str">
+      <c r="A397" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx55(S46) ГОСТ 7798-77</v>
       </c>
@@ -11695,7 +11703,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="str">
+      <c r="A398" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx60(S46) ГОСТ 7798-77</v>
       </c>
@@ -11724,7 +11732,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="str">
+      <c r="A399" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx65(S46) ГОСТ 7798-77</v>
       </c>
@@ -11753,7 +11761,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="str">
+      <c r="A400" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx70(S46) ГОСТ 7798-77</v>
       </c>
@@ -11782,7 +11790,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="str">
+      <c r="A401" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx75(S46) ГОСТ 7798-77</v>
       </c>
@@ -11811,7 +11819,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="str">
+      <c r="A402" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx80(S46) ГОСТ 7798-77</v>
       </c>
@@ -11840,7 +11848,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="str">
+      <c r="A403" s="4" t="str">
         <f t="shared" si="29"/>
         <v>*Болт М30-6gx85(S46) ГОСТ 7798-77</v>
       </c>
@@ -11869,7 +11877,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="str">
+      <c r="A404" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx90(S46) ГОСТ 7798-77</v>
       </c>
@@ -11898,7 +11906,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="str">
+      <c r="A405" s="4" t="str">
         <f t="shared" si="29"/>
         <v>*Болт М30-6gx95(S46) ГОСТ 7798-77</v>
       </c>
@@ -11927,7 +11935,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="str">
+      <c r="A406" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx100(S46) ГОСТ 7798-77</v>
       </c>
@@ -11956,7 +11964,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="str">
+      <c r="A407" s="4" t="str">
         <f t="shared" si="29"/>
         <v>*Болт М30-6gx105(S46) ГОСТ 7798-77</v>
       </c>
@@ -11985,7 +11993,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="str">
+      <c r="A408" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx110(S46) ГОСТ 7798-77</v>
       </c>
@@ -12014,7 +12022,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="str">
+      <c r="A409" s="4" t="str">
         <f t="shared" si="29"/>
         <v>*Болт М30-6gx115(S46) ГОСТ 7798-77</v>
       </c>
@@ -12043,7 +12051,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="str">
+      <c r="A410" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx120(S46) ГОСТ 7798-77</v>
       </c>
@@ -12072,7 +12080,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="str">
+      <c r="A411" s="4" t="str">
         <f t="shared" si="29"/>
         <v>*Болт М30-6gx125(S46) ГОСТ 7798-77</v>
       </c>
@@ -12101,7 +12109,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="str">
+      <c r="A412" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx130(S46) ГОСТ 7798-77</v>
       </c>
@@ -12130,7 +12138,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="str">
+      <c r="A413" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx140(S46) ГОСТ 7798-77</v>
       </c>
@@ -12159,7 +12167,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="str">
+      <c r="A414" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx150(S46) ГОСТ 7798-77</v>
       </c>
@@ -12188,7 +12196,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="str">
+      <c r="A415" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx160(S46) ГОСТ 7798-77</v>
       </c>
@@ -12217,7 +12225,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="str">
+      <c r="A416" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx170(S46) ГОСТ 7798-77</v>
       </c>
@@ -12246,7 +12254,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="str">
+      <c r="A417" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx180(S46) ГОСТ 7798-77</v>
       </c>
@@ -12275,7 +12283,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="str">
+      <c r="A418" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx190(S46) ГОСТ 7798-77</v>
       </c>
@@ -12304,7 +12312,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="str">
+      <c r="A419" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx200(S46) ГОСТ 7798-77</v>
       </c>
@@ -12333,7 +12341,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="str">
+      <c r="A420" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx220(S46) ГОСТ 7798-77</v>
       </c>
@@ -12362,7 +12370,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="str">
+      <c r="A421" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx240(S46) ГОСТ 7798-77</v>
       </c>
@@ -12391,7 +12399,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="str">
+      <c r="A422" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx260(S46) ГОСТ 7798-77</v>
       </c>
@@ -12420,7 +12428,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="str">
+      <c r="A423" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx280(S46) ГОСТ 7798-77</v>
       </c>
@@ -12449,7 +12457,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="str">
+      <c r="A424" s="4" t="str">
         <f t="shared" si="29"/>
         <v>Болт М30-6gx300(S46) ГОСТ 7798-77</v>
       </c>
@@ -12478,7 +12486,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="str">
+      <c r="A425" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М36-6gx50(S55) ГОСТ 7798-77</v>
       </c>
@@ -12512,7 +12520,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="str">
+      <c r="A426" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М36-6gx55(S55) ГОСТ 7798-77</v>
       </c>
@@ -12541,7 +12549,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="str">
+      <c r="A427" s="4" t="str">
         <f t="shared" ref="A427:A453" si="32">IF(K427="YES","Болт М"&amp;C427&amp;"-6gx"&amp;H427&amp;"(S"&amp;E427&amp;") ГОСТ 7798-77","*Болт М"&amp;C427&amp;"-6gx"&amp;H427&amp;"(S"&amp;E427&amp;") ГОСТ 7798-77")</f>
         <v>Болт М36-6gx60(S55) ГОСТ 7798-77</v>
       </c>
@@ -12570,7 +12578,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="str">
+      <c r="A428" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx65(S55) ГОСТ 7798-77</v>
       </c>
@@ -12599,7 +12607,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="str">
+      <c r="A429" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx70(S55) ГОСТ 7798-77</v>
       </c>
@@ -12628,7 +12636,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="str">
+      <c r="A430" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx75(S55) ГОСТ 7798-77</v>
       </c>
@@ -12657,7 +12665,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="str">
+      <c r="A431" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx80(S55) ГОСТ 7798-77</v>
       </c>
@@ -12686,7 +12694,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="str">
+      <c r="A432" s="4" t="str">
         <f t="shared" si="32"/>
         <v>*Болт М36-6gx85(S55) ГОСТ 7798-77</v>
       </c>
@@ -12715,7 +12723,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="str">
+      <c r="A433" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx90(S55) ГОСТ 7798-77</v>
       </c>
@@ -12744,7 +12752,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="str">
+      <c r="A434" s="4" t="str">
         <f t="shared" si="32"/>
         <v>*Болт М36-6gx95(S55) ГОСТ 7798-77</v>
       </c>
@@ -12773,7 +12781,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="str">
+      <c r="A435" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx100(S55) ГОСТ 7798-77</v>
       </c>
@@ -12802,7 +12810,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="str">
+      <c r="A436" s="4" t="str">
         <f t="shared" si="32"/>
         <v>*Болт М36-6gx105(S55) ГОСТ 7798-77</v>
       </c>
@@ -12831,7 +12839,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="str">
+      <c r="A437" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx110(S55) ГОСТ 7798-77</v>
       </c>
@@ -12860,7 +12868,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="str">
+      <c r="A438" s="4" t="str">
         <f t="shared" si="32"/>
         <v>*Болт М36-6gx115(S55) ГОСТ 7798-77</v>
       </c>
@@ -12889,7 +12897,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="str">
+      <c r="A439" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx120(S55) ГОСТ 7798-77</v>
       </c>
@@ -12918,7 +12926,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="str">
+      <c r="A440" s="4" t="str">
         <f t="shared" si="32"/>
         <v>*Болт М36-6gx125(S55) ГОСТ 7798-77</v>
       </c>
@@ -12947,7 +12955,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="str">
+      <c r="A441" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx130(S55) ГОСТ 7798-77</v>
       </c>
@@ -12976,7 +12984,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="str">
+      <c r="A442" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx140(S55) ГОСТ 7798-77</v>
       </c>
@@ -13005,7 +13013,7 @@
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="str">
+      <c r="A443" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx150(S55) ГОСТ 7798-77</v>
       </c>
@@ -13034,7 +13042,7 @@
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="str">
+      <c r="A444" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx160(S55) ГОСТ 7798-77</v>
       </c>
@@ -13063,7 +13071,7 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="str">
+      <c r="A445" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx170(S55) ГОСТ 7798-77</v>
       </c>
@@ -13092,7 +13100,7 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="str">
+      <c r="A446" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx180(S55) ГОСТ 7798-77</v>
       </c>
@@ -13121,7 +13129,7 @@
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="str">
+      <c r="A447" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx190(S55) ГОСТ 7798-77</v>
       </c>
@@ -13150,7 +13158,7 @@
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="str">
+      <c r="A448" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx200(S55) ГОСТ 7798-77</v>
       </c>
@@ -13179,7 +13187,7 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="str">
+      <c r="A449" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx220(S55) ГОСТ 7798-77</v>
       </c>
@@ -13208,7 +13216,7 @@
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="str">
+      <c r="A450" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx240(S55) ГОСТ 7798-77</v>
       </c>
@@ -13237,7 +13245,7 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="str">
+      <c r="A451" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx260(S55) ГОСТ 7798-77</v>
       </c>
@@ -13266,7 +13274,7 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="str">
+      <c r="A452" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx280(S55) ГОСТ 7798-77</v>
       </c>
@@ -13295,7 +13303,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="str">
+      <c r="A453" s="4" t="str">
         <f t="shared" si="32"/>
         <v>Болт М36-6gx300(S55) ГОСТ 7798-77</v>
       </c>
@@ -13324,7 +13332,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="str">
+      <c r="A454" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М42-6gx55(S65) ГОСТ 7798-77</v>
       </c>
@@ -13358,7 +13366,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="str">
+      <c r="A455" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М42-6gx60(S65) ГОСТ 7798-77</v>
       </c>
@@ -13387,7 +13395,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="str">
+      <c r="A456" s="4" t="str">
         <f t="shared" ref="A456:A481" si="35">IF(K456="YES","Болт М"&amp;C456&amp;"-6gx"&amp;H456&amp;"(S"&amp;E456&amp;") ГОСТ 7798-77","*Болт М"&amp;C456&amp;"-6gx"&amp;H456&amp;"(S"&amp;E456&amp;") ГОСТ 7798-77")</f>
         <v>Болт М42-6gx65(S65) ГОСТ 7798-77</v>
       </c>
@@ -13416,7 +13424,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="str">
+      <c r="A457" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx70(S65) ГОСТ 7798-77</v>
       </c>
@@ -13445,7 +13453,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="str">
+      <c r="A458" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx75(S65) ГОСТ 7798-77</v>
       </c>
@@ -13474,7 +13482,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="str">
+      <c r="A459" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx80(S65) ГОСТ 7798-77</v>
       </c>
@@ -13503,7 +13511,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="str">
+      <c r="A460" s="4" t="str">
         <f t="shared" si="35"/>
         <v>*Болт М42-6gx85(S65) ГОСТ 7798-77</v>
       </c>
@@ -13532,7 +13540,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="str">
+      <c r="A461" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx90(S65) ГОСТ 7798-77</v>
       </c>
@@ -13561,7 +13569,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="str">
+      <c r="A462" s="4" t="str">
         <f t="shared" si="35"/>
         <v>*Болт М42-6gx95(S65) ГОСТ 7798-77</v>
       </c>
@@ -13590,7 +13598,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="str">
+      <c r="A463" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx100(S65) ГОСТ 7798-77</v>
       </c>
@@ -13619,7 +13627,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="str">
+      <c r="A464" s="4" t="str">
         <f t="shared" si="35"/>
         <v>*Болт М42-6gx105(S65) ГОСТ 7798-77</v>
       </c>
@@ -13648,7 +13656,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="str">
+      <c r="A465" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx110(S65) ГОСТ 7798-77</v>
       </c>
@@ -13677,7 +13685,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="str">
+      <c r="A466" s="4" t="str">
         <f t="shared" si="35"/>
         <v>*Болт М42-6gx115(S65) ГОСТ 7798-77</v>
       </c>
@@ -13706,7 +13714,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="str">
+      <c r="A467" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx120(S65) ГОСТ 7798-77</v>
       </c>
@@ -13735,7 +13743,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="str">
+      <c r="A468" s="4" t="str">
         <f t="shared" si="35"/>
         <v>*Болт М42-6gx125(S65) ГОСТ 7798-77</v>
       </c>
@@ -13764,7 +13772,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="str">
+      <c r="A469" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx130(S65) ГОСТ 7798-77</v>
       </c>
@@ -13793,7 +13801,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="str">
+      <c r="A470" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx140(S65) ГОСТ 7798-77</v>
       </c>
@@ -13822,7 +13830,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="str">
+      <c r="A471" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx150(S65) ГОСТ 7798-77</v>
       </c>
@@ -13851,7 +13859,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="str">
+      <c r="A472" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx160(S65) ГОСТ 7798-77</v>
       </c>
@@ -13880,7 +13888,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="str">
+      <c r="A473" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx170(S65) ГОСТ 7798-77</v>
       </c>
@@ -13909,7 +13917,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="str">
+      <c r="A474" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx180(S65) ГОСТ 7798-77</v>
       </c>
@@ -13938,7 +13946,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="str">
+      <c r="A475" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx190(S65) ГОСТ 7798-77</v>
       </c>
@@ -13967,7 +13975,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="str">
+      <c r="A476" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx200(S65) ГОСТ 7798-77</v>
       </c>
@@ -13996,7 +14004,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="str">
+      <c r="A477" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx220(S65) ГОСТ 7798-77</v>
       </c>
@@ -14025,7 +14033,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="str">
+      <c r="A478" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx240(S65) ГОСТ 7798-77</v>
       </c>
@@ -14054,7 +14062,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="str">
+      <c r="A479" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx260(S65) ГОСТ 7798-77</v>
       </c>
@@ -14083,7 +14091,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="str">
+      <c r="A480" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx280(S65) ГОСТ 7798-77</v>
       </c>
@@ -14112,7 +14120,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="str">
+      <c r="A481" s="4" t="str">
         <f t="shared" si="35"/>
         <v>Болт М42-6gx300(S65) ГОСТ 7798-77</v>
       </c>
@@ -14141,7 +14149,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="str">
+      <c r="A482" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М48-6gx65(S75) ГОСТ 7798-77</v>
       </c>
@@ -14175,7 +14183,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="str">
+      <c r="A483" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Болт М48-6gx70(S75) ГОСТ 7798-77</v>
       </c>
@@ -14204,7 +14212,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="str">
+      <c r="A484" s="4" t="str">
         <f t="shared" ref="A484:A507" si="38">IF(K484="YES","Болт М"&amp;C484&amp;"-6gx"&amp;H484&amp;"(S"&amp;E484&amp;") ГОСТ 7798-77","*Болт М"&amp;C484&amp;"-6gx"&amp;H484&amp;"(S"&amp;E484&amp;") ГОСТ 7798-77")</f>
         <v>Болт М48-6gx75(S75) ГОСТ 7798-77</v>
       </c>
@@ -14233,7 +14241,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="str">
+      <c r="A485" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx80(S75) ГОСТ 7798-77</v>
       </c>
@@ -14262,7 +14270,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="str">
+      <c r="A486" s="4" t="str">
         <f t="shared" si="38"/>
         <v>*Болт М48-6gx85(S75) ГОСТ 7798-77</v>
       </c>
@@ -14291,7 +14299,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="str">
+      <c r="A487" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx90(S75) ГОСТ 7798-77</v>
       </c>
@@ -14320,7 +14328,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="str">
+      <c r="A488" s="4" t="str">
         <f t="shared" si="38"/>
         <v>*Болт М48-6gx95(S75) ГОСТ 7798-77</v>
       </c>
@@ -14349,7 +14357,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="str">
+      <c r="A489" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx100(S75) ГОСТ 7798-77</v>
       </c>
@@ -14378,7 +14386,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="str">
+      <c r="A490" s="4" t="str">
         <f t="shared" si="38"/>
         <v>*Болт М48-6gx105(S75) ГОСТ 7798-77</v>
       </c>
@@ -14407,7 +14415,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="str">
+      <c r="A491" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx110(S75) ГОСТ 7798-77</v>
       </c>
@@ -14436,7 +14444,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="str">
+      <c r="A492" s="4" t="str">
         <f t="shared" si="38"/>
         <v>*Болт М48-6gx115(S75) ГОСТ 7798-77</v>
       </c>
@@ -14465,7 +14473,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="str">
+      <c r="A493" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx120(S75) ГОСТ 7798-77</v>
       </c>
@@ -14494,7 +14502,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="str">
+      <c r="A494" s="4" t="str">
         <f t="shared" si="38"/>
         <v>*Болт М48-6gx125(S75) ГОСТ 7798-77</v>
       </c>
@@ -14523,7 +14531,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="str">
+      <c r="A495" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx130(S75) ГОСТ 7798-77</v>
       </c>
@@ -14552,7 +14560,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="str">
+      <c r="A496" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx140(S75) ГОСТ 7798-77</v>
       </c>
@@ -14581,7 +14589,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="str">
+      <c r="A497" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx150(S75) ГОСТ 7798-77</v>
       </c>
@@ -14610,7 +14618,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="str">
+      <c r="A498" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx160(S75) ГОСТ 7798-77</v>
       </c>
@@ -14639,7 +14647,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="str">
+      <c r="A499" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx170(S75) ГОСТ 7798-77</v>
       </c>
@@ -14668,7 +14676,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="str">
+      <c r="A500" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx180(S75) ГОСТ 7798-77</v>
       </c>
@@ -14697,7 +14705,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="str">
+      <c r="A501" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx190(S75) ГОСТ 7798-77</v>
       </c>
@@ -14726,7 +14734,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="str">
+      <c r="A502" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx200(S75) ГОСТ 7798-77</v>
       </c>
@@ -14755,7 +14763,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="str">
+      <c r="A503" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx220(S75) ГОСТ 7798-77</v>
       </c>
@@ -14784,7 +14792,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="str">
+      <c r="A504" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx240(S75) ГОСТ 7798-77</v>
       </c>
@@ -14813,7 +14821,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="str">
+      <c r="A505" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx260(S75) ГОСТ 7798-77</v>
       </c>
@@ -14842,7 +14850,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="str">
+      <c r="A506" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx280(S75) ГОСТ 7798-77</v>
       </c>
@@ -14871,7 +14879,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="str">
+      <c r="A507" s="4" t="str">
         <f t="shared" si="38"/>
         <v>Болт М48-6gx300(S75) ГОСТ 7798-77</v>
       </c>
@@ -14897,6 +14905,34 @@
       </c>
       <c r="K507" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="4" t="str">
+        <f>IF(K508="YES","Болт М"&amp;C508&amp;"-6gx"&amp;H508&amp;"(S"&amp;E508&amp;") ГОСТ 7798-77","*Болт М"&amp;C508&amp;"-6gx"&amp;H508&amp;"(S"&amp;E508&amp;") ГОСТ 7798-77")</f>
+        <v>*Болт М10-6gx(S10) ГОСТ 7798-77</v>
+      </c>
+      <c r="C508" s="1">
+        <v>10</v>
+      </c>
+      <c r="D508" s="1">
+        <v>1</v>
+      </c>
+      <c r="E508" s="1">
+        <v>10</v>
+      </c>
+      <c r="F508" s="1">
+        <v>4</v>
+      </c>
+      <c r="G508" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="I508" s="1">
+        <v>8</v>
+      </c>
+      <c r="J508" s="1" t="str">
+        <f>A508</f>
+        <v>*Болт М10-6gx(S10) ГОСТ 7798-77</v>
       </c>
     </row>
   </sheetData>

--- a/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
+++ b/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13280777-1A2C-4E65-ACB5-6814F7B0CB92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E58AA00-FF9F-4AB7-88DF-B86C1D32526B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11490" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -490,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81750476-835F-4BE1-9450-5A0A56AFB7F7}">
   <dimension ref="A1:K508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
+++ b/ГОСТ/Метизы/Болты и Винты/Болты с шестигранной головкой кт.В (ГОСТ 7798-70).xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E58AA00-FF9F-4AB7-88DF-B86C1D32526B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\SW-IREX\SW_ToolBoxHandMade\ГОСТ\Метизы\Болты и Винты\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F557021-5F7D-427F-B537-71A90B2CCD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
+    <workbookView xWindow="31185" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{247A69DA-A976-4570-8625-4604C7F8EEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
